--- a/biology/Zoologie/Brachytarsophrys_carinense/Brachytarsophrys_carinense.xlsx
+++ b/biology/Zoologie/Brachytarsophrys_carinense/Brachytarsophrys_carinense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachytarsophrys carinense est une espèce d'amphibiens de la famille des Megophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachytarsophrys carinense est une espèce d'amphibiens de la famille des Megophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Sud-Est de l'Asie. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Sud-Est de l'Asie. Elle se rencontre :
 dans le sud de la Birmanie ;
 dans le nord-ouest de la Thaïlande ;
 en République populaire de Chine dans les provinces du Yunnan, du Sichuan, du Guizhou, du Guangxi, du Hunan et du Jiangxi.</t>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de carin et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les monts Karen.
 </t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1889 : Description of a new batrachian of the genus Leptobrachium, obtained by M. L. Fea in the Karens Mountains, Burma. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 7, p. 748-750 (texte intégral).
 Rao &amp; Yang, 1997 : The variation in karyotypes of Brachytarsophrys from China with a discussion of the classification of the genus. Asiatic Herpetological Research, vol. 7, p. 103-107 (texte intégral).</t>
